--- a/esempio_DistillazioneMulticomponente.xlsx
+++ b/esempio_DistillazioneMulticomponente.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10699412_polimi_it/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10699412_polimi_it/Documents/Componenti aggiuntivi excel/02 impiantiChimici/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="181" documentId="8_{D7FF8CAE-CAE2-4A43-8979-DE9F3D948809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71CC78B5-B7B0-4D54-820D-B5D1A823BAB0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CCCC71AD-01BA-4085-BF7C-D4C461F33DE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CCCC71AD-01BA-4085-BF7C-D4C461F33DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="1a Iterazione" sheetId="1" r:id="rId1"/>
@@ -573,12 +573,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,19 +582,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -619,6 +604,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1166,8 +1166,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CasellaDiTesto 7">
@@ -1239,6 +1239,7 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1405,7 +1406,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CasellaDiTesto 7">
@@ -1605,8 +1606,8 @@
       <xdr:row>102</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CasellaDiTesto 9">
@@ -1674,6 +1675,7 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1716,6 +1718,7 @@
               <a:endParaRPr lang="it-IT"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1804,6 +1807,7 @@
               <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1925,7 +1929,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CasellaDiTesto 9">
@@ -2778,8 +2782,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CasellaDiTesto 7">
@@ -2851,6 +2855,7 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3017,7 +3022,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CasellaDiTesto 7">
@@ -3217,8 +3222,8 @@
       <xdr:row>102</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CasellaDiTesto 9">
@@ -3286,6 +3291,7 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3314,7 +3320,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>=</m:t>
+                      <m:t>=0.008305</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="it-IT" sz="1100" b="0" i="1">
@@ -3322,11 +3328,11 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>0.00830524</m:t>
+                      <m:t>24</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -3334,6 +3340,7 @@
               <a:endParaRPr lang="it-IT"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3430,6 +3437,7 @@
               <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3551,7 +3559,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CasellaDiTesto 9">
@@ -4415,8 +4423,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CasellaDiTesto 7">
@@ -4488,6 +4496,7 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4654,7 +4663,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CasellaDiTesto 7">
@@ -4854,8 +4863,8 @@
       <xdr:row>102</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CasellaDiTesto 9">
@@ -4923,6 +4932,7 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4977,6 +4987,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5074,6 +5085,7 @@
               <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5195,7 +5207,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CasellaDiTesto 9">
@@ -5899,52 +5911,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>0.04</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L3">
@@ -5961,16 +5973,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
         <v>0.4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L4">
@@ -5987,16 +5999,16 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <v>0.02</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L5">
@@ -6013,16 +6025,16 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>0.48</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L6">
@@ -6039,16 +6051,16 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
         <v>0.06</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L7">
@@ -6065,7 +6077,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8">
@@ -6073,7 +6085,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9">
@@ -6082,30 +6094,30 @@
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -6116,7 +6128,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15">
@@ -6127,23 +6139,23 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16">
         <v>0.02</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>0.5</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -6154,7 +6166,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18">
@@ -6166,47 +6178,47 @@
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22">
         <f>$B$8*(B14*C14+B15*C15+B16*C16+B17*C17+B18*C18)</f>
         <v>44.68</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
         <f>B8-B22</f>
         <v>55.32</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E23">
@@ -6220,12 +6232,12 @@
         <f>$B$8*E23*(1-C14)/$B$23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24">
@@ -6239,12 +6251,12 @@
         <f>$B$8*E24*(1-C15)/$B$23</f>
         <v>1.4461315979754171E-2</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E25">
@@ -6258,12 +6270,12 @@
         <f>$B$8*E25*(1-C16)/$B$23</f>
         <v>1.8076644974692697E-2</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E26">
@@ -6277,12 +6289,12 @@
         <f>$B$8*E26*(1-C17)/$B$23</f>
         <v>0.85900216919739691</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E27">
@@ -6296,42 +6308,42 @@
         <f>$B$8*E27*(1-C18)/$B$23</f>
         <v>0.10845986984815618</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="8">
         <v>341.3282407342034</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B32" cm="1">
@@ -6342,16 +6354,16 @@
         <f>F23/B32</f>
         <v>3.3562505867321422E-2</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="13">
         <f>SUM(C32:C36)-1/B9</f>
         <v>-4.5610875076818047E-9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B33" cm="1">
@@ -6364,7 +6376,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B34" cm="1">
@@ -6377,7 +6389,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B35" cm="1">
@@ -6390,7 +6402,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B36" cm="1">
@@ -6403,24 +6415,24 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="8">
         <v>352.92454625630967</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B39" cm="1">
@@ -6431,16 +6443,16 @@
         <f>B39*E23</f>
         <v>0.14467771321496986</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="13">
         <f>SUM(C39:C43)-B9</f>
         <v>-1.4084566846150892E-10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B40" cm="1">
@@ -6453,7 +6465,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B41" cm="1">
@@ -6466,7 +6478,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B42" cm="1">
@@ -6479,7 +6491,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B43" cm="1">
@@ -6492,21 +6504,21 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="8">
         <v>372.84913859518713</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B46" cm="1">
@@ -6517,16 +6529,16 @@
         <f>B46*G23</f>
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="13">
         <f>SUM(C46:C50)-B9</f>
         <v>-9.303729009424444E-9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B47" cm="1">
@@ -6539,7 +6551,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B48" cm="1">
@@ -6552,7 +6564,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B49" cm="1">
@@ -6565,7 +6577,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B50" cm="1">
@@ -6579,36 +6591,36 @@
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="7"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B55">
@@ -6627,12 +6639,12 @@
         <f>PRODUCT(B55:D55)^(1/3)</f>
         <v>6.3630514521064931</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B56">
@@ -6651,12 +6663,12 @@
         <f t="shared" ref="F56:F59" si="6">PRODUCT(B56:D56)^(1/3)</f>
         <v>2.4770067326160037</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B57">
@@ -6675,12 +6687,12 @@
         <f t="shared" si="6"/>
         <v>1.3052373844639538</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B58">
@@ -6699,12 +6711,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B59">
@@ -6723,87 +6735,87 @@
         <f t="shared" si="6"/>
         <v>0.41207271529521933</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="7"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B64">
         <v>1.5139948339001086</v>
       </c>
-      <c r="C64" s="18" cm="1">
+      <c r="C64" s="13" cm="1">
         <f t="array" ref="C64">[1]!underwood_1(F55:F59,E23:E27,1,B64,5)</f>
         <v>-4.4819646424776316E-8</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B65">
         <v>1.2759969065164989</v>
       </c>
-      <c r="C65" s="18" cm="1">
+      <c r="C65" s="13" cm="1">
         <f t="array" ref="C65">[1]!underwood_1(F55:F59,E23:E27,1,B65,5)</f>
         <v>-1.3612421259634466E-10</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="7"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B70">
@@ -6812,7 +6824,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B71" cm="1">
@@ -6821,7 +6833,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B72" cm="1">
@@ -6831,51 +6843,51 @@
     </row>
     <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="7"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B80">
         <f>F23</f>
         <v>8.9525514771709933E-2</v>
       </c>
-      <c r="C80" s="18" cm="1">
+      <c r="C80" s="13" cm="1">
         <f t="array" ref="C80">[1]!underwood_2(B86,F55:F59,B80:B84,B64,5)</f>
         <v>0</v>
       </c>
@@ -6885,28 +6897,28 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B81">
         <f t="shared" ref="B81:B84" si="7">F24</f>
         <v>0.87735004476275746</v>
       </c>
-      <c r="C81" s="18" cm="1">
+      <c r="C81" s="13" cm="1">
         <f t="array" ref="C81">[1]!underwood_2(B86,F55:F59,B80:B84,B65,5)</f>
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B82" s="12">
         <v>9.2495306480682368E-3</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B83">
@@ -6915,7 +6927,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B84">
@@ -6927,28 +6939,28 @@
       <c r="A86" t="s">
         <v>58</v>
       </c>
-      <c r="B86" s="17">
+      <c r="B86" s="12">
         <v>1.2954165874692958</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="7"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B91" cm="1">
@@ -6957,10 +6969,10 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
+      <c r="A92" s="6"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B93">
@@ -6978,17 +6990,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="B52:I52"/>
     <mergeCell ref="B61:I61"/>
     <mergeCell ref="B68:I68"/>
     <mergeCell ref="B77:I77"/>
     <mergeCell ref="B89:I89"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7019,52 +7031,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>0.04</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L3">
@@ -7081,16 +7093,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
         <v>0.4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L4">
@@ -7107,16 +7119,16 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <v>0.02</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L5">
@@ -7133,16 +7145,16 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>0.48</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L6">
@@ -7159,16 +7171,16 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
         <v>0.06</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L7">
@@ -7185,7 +7197,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8">
@@ -7193,7 +7205,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9">
@@ -7202,30 +7214,30 @@
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -7236,7 +7248,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15">
@@ -7247,24 +7259,24 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16">
         <v>0.02</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <f>'1a Iterazione'!B96</f>
         <v>0.18553905850237229</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -7275,7 +7287,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18">
@@ -7287,47 +7299,47 @@
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22">
         <f>$B$8*(B14*C14+B15*C15+B16*C16+B17*C17+B18*C18)</f>
         <v>44.051078117004749</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
         <f>B8-B22</f>
         <v>55.948921882995251</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E23">
@@ -7341,12 +7353,12 @@
         <f>$B$8*E23*(1-C14)/$B$23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24">
@@ -7360,12 +7372,12 @@
         <f>$B$8*E24*(1-C15)/$B$23</f>
         <v>1.4298756313357084E-2</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E25">
@@ -7379,12 +7391,12 @@
         <f>$B$8*E25*(1-C16)/$B$23</f>
         <v>2.9114446323054873E-2</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E26">
@@ -7398,12 +7410,12 @@
         <f>$B$8*E26*(1-C17)/$B$23</f>
         <v>0.84934612501341</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E27">
@@ -7417,42 +7429,42 @@
         <f>$B$8*E27*(1-C18)/$B$23</f>
         <v>0.10724067235017805</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="8">
         <v>340.87126137187693</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B32" cm="1">
@@ -7463,16 +7475,16 @@
         <f>F23/B32</f>
         <v>3.4469209967807182E-2</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="13">
         <f>SUM(C32:C36)-1/B9</f>
         <v>2.2739622185241615E-8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B33" cm="1">
@@ -7485,7 +7497,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B34" cm="1">
@@ -7498,7 +7510,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B35" cm="1">
@@ -7511,7 +7523,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B36" cm="1">
@@ -7524,24 +7536,24 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="8">
         <v>352.92454625630967</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B39" cm="1">
@@ -7552,16 +7564,16 @@
         <f>B39*E23</f>
         <v>0.14467771321496986</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="13">
         <f>SUM(C39:C43)-B9</f>
         <v>-1.4084566846150892E-10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B40" cm="1">
@@ -7574,7 +7586,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B41" cm="1">
@@ -7587,7 +7599,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B42" cm="1">
@@ -7600,7 +7612,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B43" cm="1">
@@ -7613,21 +7625,21 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="8">
         <v>372.72406937741886</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B46" cm="1">
@@ -7638,16 +7650,16 @@
         <f>B46*G23</f>
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="13">
         <f>SUM(C46:C50)-B9</f>
         <v>-3.8689018655446716E-10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B47" cm="1">
@@ -7660,7 +7672,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B48" cm="1">
@@ -7673,7 +7685,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B49" cm="1">
@@ -7686,7 +7698,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B50" cm="1">
@@ -7700,36 +7712,36 @@
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="7"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B55">
@@ -7748,12 +7760,12 @@
         <f>PRODUCT(B55:D55)^(1/3)</f>
         <v>6.373218156326443</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B56">
@@ -7772,12 +7784,12 @@
         <f t="shared" ref="F56:F59" si="6">PRODUCT(B56:D56)^(1/3)</f>
         <v>2.4790112573919463</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B57">
@@ -7796,12 +7808,12 @@
         <f t="shared" si="6"/>
         <v>1.3056049002354744</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B58">
@@ -7820,12 +7832,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B59">
@@ -7844,87 +7856,87 @@
         <f t="shared" si="6"/>
         <v>0.41172435148874331</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="7"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B64">
         <v>1.5144396824105413</v>
       </c>
-      <c r="C64" s="18" cm="1">
+      <c r="C64" s="13" cm="1">
         <f t="array" ref="C64">[1]!underwood_1(F55:F59,E23:E27,1,B64,5)</f>
         <v>1.0290036184246176E-11</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B65">
         <v>1.2763073647571821</v>
       </c>
-      <c r="C65" s="18" cm="1">
+      <c r="C65" s="13" cm="1">
         <f t="array" ref="C65">[1]!underwood_1(F55:F59,E23:E27,1,B65,5)</f>
         <v>-5.8705588272534026E-9</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="7"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B70">
@@ -7933,7 +7945,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B71" cm="1">
@@ -7942,7 +7954,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B72" cm="1">
@@ -7952,51 +7964,51 @@
     </row>
     <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="7"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B80">
         <f>F23</f>
         <v>9.0803679977492002E-2</v>
       </c>
-      <c r="C80" s="18" cm="1">
+      <c r="C80" s="13" cm="1">
         <f t="array" ref="C80">[1]!underwood_2(B86,F55:F59,B80:B84,B64,5)</f>
         <v>-9.9999999392252903E-9</v>
       </c>
@@ -8006,28 +8018,28 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B81">
         <f t="shared" ref="B81" si="7">F24</f>
         <v>0.88987606377942163</v>
       </c>
-      <c r="C81" s="18" cm="1">
+      <c r="C81" s="13" cm="1">
         <f t="array" ref="C81">[1]!underwood_2(B86,F55:F59,B80:B84,B65,5)</f>
         <v>-5.2331334821076325E-9</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B82" s="12">
         <v>9.3799618452066642E-3</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B83">
@@ -8036,7 +8048,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B84">
@@ -8048,28 +8060,28 @@
       <c r="A86" t="s">
         <v>58</v>
       </c>
-      <c r="B86" s="17">
+      <c r="B86" s="12">
         <v>1.3263220376357685</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="7"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B91" cm="1">
@@ -8078,10 +8090,10 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
+      <c r="A92" s="6"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B93">
@@ -8099,17 +8111,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="B52:I52"/>
     <mergeCell ref="B61:I61"/>
     <mergeCell ref="B68:I68"/>
     <mergeCell ref="B77:I77"/>
     <mergeCell ref="B89:I89"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8140,52 +8152,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>0.04</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L3">
@@ -8202,16 +8214,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
         <v>0.4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L4">
@@ -8228,16 +8240,16 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <v>0.02</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L5">
@@ -8254,16 +8266,16 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>0.48</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L6">
@@ -8280,16 +8292,16 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
         <v>0.06</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L7">
@@ -8306,7 +8318,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8">
@@ -8314,7 +8326,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9">
@@ -8323,30 +8335,30 @@
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -8357,7 +8369,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15">
@@ -8368,24 +8380,24 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16">
         <v>0.02</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <f>'2a Iterazione'!B96</f>
         <v>0.18500577015106867</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -8396,7 +8408,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18">
@@ -8408,47 +8420,47 @@
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22">
         <f>$B$8*(B14*C14+B15*C15+B16*C16+B17*C17+B18*C18)</f>
         <v>44.050011540302144</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
         <f>B8-B22</f>
         <v>55.949988459697856</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E23">
@@ -8462,12 +8474,12 @@
         <f>$B$8*E23*(1-C14)/$B$23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24">
@@ -8481,12 +8493,12 @@
         <f>$B$8*E24*(1-C15)/$B$23</f>
         <v>1.4298483735635803E-2</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E25">
@@ -8500,12 +8512,12 @@
         <f>$B$8*E25*(1-C16)/$B$23</f>
         <v>2.9132954350329907E-2</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E26">
@@ -8519,12 +8531,12 @@
         <f>$B$8*E26*(1-C17)/$B$23</f>
         <v>0.84932993389676592</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E27">
@@ -8538,42 +8550,42 @@
         <f>$B$8*E27*(1-C18)/$B$23</f>
         <v>0.10723862801726844</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="8">
         <v>340.87046954981793</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B32" cm="1">
@@ -8584,16 +8596,16 @@
         <f>F23/B32</f>
         <v>3.4470791150392449E-2</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="13">
         <f>SUM(C32:C36)-1/B9</f>
         <v>1.0369483049998962E-13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B33" cm="1">
@@ -8606,7 +8618,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B34" cm="1">
@@ -8619,7 +8631,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B35" cm="1">
@@ -8632,7 +8644,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B36" cm="1">
@@ -8645,24 +8657,24 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="8">
         <v>352.92454625630967</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B39" cm="1">
@@ -8673,16 +8685,16 @@
         <f>B39*E23</f>
         <v>0.14467771321496986</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="13">
         <f>SUM(C39:C43)-B9</f>
         <v>-1.4084566846150892E-10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B40" cm="1">
@@ -8695,7 +8707,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B41" cm="1">
@@ -8708,7 +8720,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B42" cm="1">
@@ -8721,7 +8733,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B43" cm="1">
@@ -8734,21 +8746,21 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="8">
         <v>372.72386040873204</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B46" cm="1">
@@ -8759,16 +8771,16 @@
         <f>B46*G23</f>
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="13">
         <f>SUM(C46:C50)-B9</f>
         <v>1.1566182678279802E-8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B47" cm="1">
@@ -8781,7 +8793,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B48" cm="1">
@@ -8794,7 +8806,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B49" cm="1">
@@ -8807,7 +8819,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B50" cm="1">
@@ -8821,36 +8833,36 @@
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="7"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B55">
@@ -8869,12 +8881,12 @@
         <f>PRODUCT(B55:D55)^(1/3)</f>
         <v>6.3732357044619228</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B56">
@@ -8893,12 +8905,12 @@
         <f t="shared" ref="F56:F59" si="6">PRODUCT(B56:D56)^(1/3)</f>
         <v>2.4790147160596923</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B57">
@@ -8917,12 +8929,12 @@
         <f t="shared" si="6"/>
         <v>1.305605534250956</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B58">
@@ -8941,12 +8953,12 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B59">
@@ -8965,87 +8977,87 @@
         <f t="shared" si="6"/>
         <v>0.41172375085537449</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="7"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B64">
         <v>1.5144404664962967</v>
       </c>
-      <c r="C64" s="18" cm="1">
+      <c r="C64" s="13" cm="1">
         <f t="array" ref="C64">[1]!underwood_1(F55:F59,E23:E27,1,B64,5)</f>
         <v>5.9267419343783656E-8</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B65">
         <v>1.2763079004404894</v>
       </c>
-      <c r="C65" s="18" cm="1">
+      <c r="C65" s="13" cm="1">
         <f t="array" ref="C65">[1]!underwood_1(F55:F59,E23:E27,1,B65,5)</f>
         <v>1.6341063918678955E-11</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="7"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B70">
@@ -9054,7 +9066,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B71" cm="1">
@@ -9063,7 +9075,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B72" cm="1">
@@ -9073,51 +9085,51 @@
     </row>
     <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="7"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B80">
         <f>F23</f>
         <v>9.0805878594159464E-2</v>
       </c>
-      <c r="C80" s="18" cm="1">
+      <c r="C80" s="13" cm="1">
         <f t="array" ref="C80">[1]!underwood_2(B86,F55:F59,B80:B84,B64,5)</f>
         <v>0</v>
       </c>
@@ -9127,28 +9139,28 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B81">
         <f t="shared" ref="B81" si="7">F24</f>
         <v>0.88989761022276281</v>
       </c>
-      <c r="C81" s="18" cm="1">
+      <c r="C81" s="13" cm="1">
         <f t="array" ref="C81">[1]!underwood_2(B86,F55:F59,B80:B84,B65,5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B82" s="12">
         <v>9.3801869152072715E-3</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B83">
@@ -9157,7 +9169,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B84">
@@ -9169,28 +9181,28 @@
       <c r="A86" t="s">
         <v>58</v>
       </c>
-      <c r="B86" s="17">
+      <c r="B86" s="12">
         <v>1.3263751794994683</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="7"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B91" cm="1">
@@ -9199,10 +9211,10 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
+      <c r="A92" s="6"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B93">
@@ -9220,17 +9232,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="B52:I52"/>
     <mergeCell ref="B61:I61"/>
     <mergeCell ref="B68:I68"/>
     <mergeCell ref="B77:I77"/>
     <mergeCell ref="B89:I89"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
